--- a/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D14"/>
     </sheetView>
   </sheetViews>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1700,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>16000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>240000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>480000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>1920000</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>3840000</v>
+        <v>7680000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>7680000</v>
+        <v>15360000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1799,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>15360000</v>
+        <v>40960000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1810,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>40960000</v>
+        <v>81920000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1821,11 +1821,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>81920000</v>
+        <v>163840000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -642,7 +642,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -653,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -667,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -681,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -695,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -709,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -723,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -737,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -751,25 +754,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
@@ -842,12 +836,7 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1040,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="3">
-        <v>120000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1054,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>120000</v>
-      </c>
-      <c r="D5" s="3">
         <v>240000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>480000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1067,11 +1067,11 @@
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>240000</v>
+      <c r="C6" s="10">
+        <v>480000</v>
       </c>
       <c r="D6" s="10">
-        <v>480000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1082,10 +1082,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>480000</v>
+        <v>900000</v>
       </c>
       <c r="D7" s="10">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1096,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="10">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="D8" s="10">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1110,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="10">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="D9" s="10">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1124,10 +1124,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="10">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
       <c r="D10" s="10">
-        <v>7200000</v>
+        <v>14400000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="10">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="10">
         <v>14400000</v>
+      </c>
+      <c r="D11">
+        <v>28800000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1151,11 +1151,11 @@
       <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
-        <v>14400000</v>
+      <c r="C12">
+        <v>28800000</v>
       </c>
       <c r="D12">
-        <v>28800000</v>
+        <v>57600000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1166,22 +1166,12 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
         <v>57600000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -982,10 +982,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27">
       <c r="A1" s="1" t="s">
@@ -1015,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>60000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1026,10 +1030,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="D3" s="3">
-        <v>120000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1040,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="D4" s="3">
-        <v>240000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1054,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>240000</v>
-      </c>
-      <c r="D5" s="10">
-        <v>480000</v>
+        <v>3600000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3600000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1068,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="10">
-        <v>480000</v>
-      </c>
-      <c r="D6" s="10">
-        <v>900000</v>
+        <v>7200000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7200000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1082,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>900000</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1800000</v>
+        <v>14400000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14400000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1096,10 +1100,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3600000</v>
+        <v>28800000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>28800000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1110,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="10">
-        <v>3600000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>7200000</v>
+        <v>57600000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>57600000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1124,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="10">
-        <v>7200000</v>
-      </c>
-      <c r="D10" s="10">
-        <v>14400000</v>
+        <v>115200000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>115200000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1138,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="10">
-        <v>14400000</v>
-      </c>
-      <c r="D11">
-        <v>28800000</v>
+        <v>307200000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>307200000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1151,11 +1155,11 @@
       <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>28800000</v>
-      </c>
-      <c r="D12">
-        <v>57600000</v>
+      <c r="C12" s="2">
+        <v>614400000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>614400000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,9 +1169,10 @@
       <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>57600000</v>
-      </c>
+      <c r="C13" s="2">
+        <v>1228800000</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8"/>

--- a/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_cs_defen_cfg.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="3">
         <v>600000</v>
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1800000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="3">
         <v>1800000</v>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>3600000</v>
+        <v>1800000</v>
       </c>
       <c r="D5" s="3">
         <v>3600000</v>
@@ -1071,8 +1071,8 @@
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
-        <v>7200000</v>
+      <c r="C6" s="3">
+        <v>3600000</v>
       </c>
       <c r="D6" s="3">
         <v>7200000</v>
@@ -1085,8 +1085,8 @@
       <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
-        <v>14400000</v>
+      <c r="C7" s="3">
+        <v>7200000</v>
       </c>
       <c r="D7" s="3">
         <v>14400000</v>
@@ -1099,8 +1099,8 @@
       <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
-        <v>28800000</v>
+      <c r="C8" s="3">
+        <v>14400000</v>
       </c>
       <c r="D8" s="3">
         <v>28800000</v>
@@ -1113,8 +1113,8 @@
       <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
-        <v>57600000</v>
+      <c r="C9" s="3">
+        <v>28800000</v>
       </c>
       <c r="D9" s="3">
         <v>57600000</v>
@@ -1127,8 +1127,8 @@
       <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
-        <v>115200000</v>
+      <c r="C10" s="3">
+        <v>57600000</v>
       </c>
       <c r="D10" s="3">
         <v>115200000</v>
@@ -1141,8 +1141,8 @@
       <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
-        <v>307200000</v>
+      <c r="C11" s="3">
+        <v>115200000</v>
       </c>
       <c r="D11" s="3">
         <v>307200000</v>
@@ -1155,8 +1155,8 @@
       <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>614400000</v>
+      <c r="C12" s="3">
+        <v>307200000</v>
       </c>
       <c r="D12" s="3">
         <v>614400000</v>
@@ -1169,8 +1169,8 @@
       <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>1228800000</v>
+      <c r="C13" s="3">
+        <v>614400000</v>
       </c>
       <c r="D13" s="3"/>
     </row>
